--- a/Marketing/buffalo.roomme.xlsx
+++ b/Marketing/buffalo.roomme.xlsx
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">

--- a/Marketing/buffalo.roomme.xlsx
+++ b/Marketing/buffalo.roomme.xlsx
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">

--- a/Marketing/buffalo.roomme.xlsx
+++ b/Marketing/buffalo.roomme.xlsx
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">

--- a/Marketing/buffalo.roomme.xlsx
+++ b/Marketing/buffalo.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B449"/>
+  <dimension ref="A1:B409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>emilywakamatsu</t>
+          <t>_emilymotaa</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>74apark</t>
+          <t>brooke.geraci</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mercedesbenz_lo.ol</t>
+          <t>mattkruse372</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>y_uan08</t>
+          <t>htabansi</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>lebenson48</t>
+          <t>ramatoulie._</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>joanna_gullo</t>
+          <t>bee.rui</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>vastly_wide_billy</t>
+          <t>bellamaria.alberico</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>lola_.mariee</t>
+          <t>gwen_park04</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>retro.pw</t>
+          <t>liam_tucker23</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mia.dla</t>
+          <t>cameron.iannuzzi</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>mariane__elias</t>
+          <t>m1l0.l4ur14</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>mattdtb_05</t>
+          <t>gisella.schoenig</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>hannahhkleinn</t>
+          <t>jurneechang</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>_obenewa.xx</t>
+          <t>philip_ouma962</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>elamtheslimgod</t>
+          <t>chloemyersss</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ellasheanoodles</t>
+          <t>ilovesushiandsmoky</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>chiragohri_07</t>
+          <t>thekalissa</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>highoffkat_</t>
+          <t>constantinesouzas</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>moa_lopez</t>
+          <t>colo_mufa_</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>seb_.torres</t>
+          <t>caraabevevino</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>summer.__.jade</t>
+          <t>lifeisamisgroove</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>sawyer_mac17</t>
+          <t>itss.storii</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>lilywatson5</t>
+          <t>shafintalha5</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>donnamason3646</t>
+          <t>demarcusspamms</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>zachwake4</t>
+          <t>buffalofasa</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>julix._e</t>
+          <t>msajay_311</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>stilltxnshi</t>
+          <t>remi.bakker5</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>toby_obinwan</t>
+          <t>_danrusso</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>beckey_forever_</t>
+          <t>alina.trzyy</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>stanleydansicker24</t>
+          <t>_alexaneira</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>nathanallen32</t>
+          <t>mya_mys123</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>alex_demagistris</t>
+          <t>nadiaban_</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>prerana_sangam14</t>
+          <t>myles_mau</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>hinahogan</t>
+          <t>jack.setter24</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>minty.margo</t>
+          <t>emily.hornbeck</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>lugsports.buffalo</t>
+          <t>chiaraamilitello</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>htabansi</t>
+          <t>davonte_nicholson</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>tbh.deandre_</t>
+          <t>0_just_ethan_0</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>juliaaawalsh</t>
+          <t>mussadental</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>avam642</t>
+          <t>_trvpsoulkay</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>sofia.fox.goulah</t>
+          <t>joanna_gullo</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>r.x.s.a_</t>
+          <t>salimahjolie</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ambiidior</t>
+          <t>danielny18</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>johnyboyyo</t>
+          <t>natwright05</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>_.riya._xo</t>
+          <t>em.dfranc</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>masani._brace</t>
+          <t>storagescholarsub</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ubvintage212</t>
+          <t>ub_psyop</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>alexafontalvoo</t>
+          <t>eeshan_05</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>bryanl_24</t>
+          <t>tbh.deandre_</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ally.marella</t>
+          <t>alex.adames05</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>sarahh8711</t>
+          <t>jackg_29</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>jadeeee644</t>
+          <t>brynn22194</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>kenzie_den17</t>
+          <t>katlin_blodgett</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>nelly.finesse</t>
+          <t>bianca.x2x</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>cris2chris_</t>
+          <t>artydub</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>nazstaylowkey</t>
+          <t>lukee203</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>bdhrdjo</t>
+          <t>emj2708</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>davonte_nicholson</t>
+          <t>tonyw1018</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>anni_prasad07</t>
+          <t>tashfiaee</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>blossnathaniel1103</t>
+          <t>sammyodehh</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>allison_g17</t>
+          <t>aaron.slobodow</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>mvchelle.huang</t>
+          <t>haleylentliee</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>mynamesmiah</t>
+          <t>rapsocial716</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>davidamchir</t>
+          <t>josh_haynes12</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>disrealgabe</t>
+          <t>aaronnguven</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>anabel.donovan</t>
+          <t>ryanhill2243</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>masonhansen23</t>
+          <t>this_iskaylaa</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>joe.yktvs</t>
+          <t>ananyaa_1108</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>odviimm</t>
+          <t>emmakessler_</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ramatoulie._</t>
+          <t>ericatarantelli</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>chennic53</t>
+          <t>stephhani333</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ronakvelandi</t>
+          <t>kaelaalo</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>nathalieclough_</t>
+          <t>ellasheanoodles</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>natescr</t>
+          <t>dev.snoop</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ryanhill2243</t>
+          <t>emma_1430</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>richie.kondenar</t>
+          <t>d4.dom</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>nolanarlo21</t>
+          <t>nicholas_gabriel__</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>lorenzo_v_89</t>
+          <t>leilaniportilla</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>carlamargossian</t>
+          <t>lovagyal.abby</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>emilyopett</t>
+          <t>its_char_liee</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>anayah.jayden_</t>
+          <t>hannahhkleinn</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>curlyy_kk</t>
+          <t>toby_obinwan</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>jadaowada</t>
+          <t>quinn.reagan</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>syddakurtright</t>
+          <t>john_naa</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>bee.rui</t>
+          <t>tae_iiii</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>wood.elizabeth657</t>
+          <t>vastly_wide_billy</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>jojonoel_</t>
+          <t>grace_orourke22</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>_annabuff</t>
+          <t>tessalanni</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>mar.tingss</t>
+          <t>alondraaaa</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>logari20</t>
+          <t>oficle_fortnight</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>courtneybonner91</t>
+          <t>con.jiggy</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ubwhwa</t>
+          <t>alexmarvellover4</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>allentowner</t>
+          <t>victoriaf544</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>emily.rachpaul</t>
+          <t>anthonyrvacca</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>kenziehenny</t>
+          <t>sergio__585</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>bguapie</t>
+          <t>beebee_lauren</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>meghan.kolb</t>
+          <t>nathanallen32</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>monicalubsyou</t>
+          <t>curlyy_kk</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>gisella.schoenig</t>
+          <t>sydneywhelann</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>arely.c2</t>
+          <t>nyc_sumeyah</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>u.chikaa_</t>
+          <t>chen.ciliang</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>hi_pinkeverywhere</t>
+          <t>mia_pinker</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>charlie.figs</t>
+          <t>adrionita_jakupi</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>almighty.von</t>
+          <t>joe.yktvs</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>katlin_blodgett</t>
+          <t>lexi.nolette</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>dan.sahadeo</t>
+          <t>whoisangelv</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>donalca69</t>
+          <t>zeroburocracia</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>heatherd3287</t>
+          <t>melody.maeee</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>shxrm_n</t>
+          <t>nelly.finesse</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>alena.panepinto</t>
+          <t>connor.pellow.12</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>bellamaria.alberico</t>
+          <t>kaylamoorehead18</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>caden2g</t>
+          <t>newjimin264</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>aaronnguven</t>
+          <t>avaa_301</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>davidfrescoyrico</t>
+          <t>matt.zebrowski</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>spulver2005</t>
+          <t>danielmatass</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>alondraaaa</t>
+          <t>maryn_derock</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>jonaherstein</t>
+          <t>disrealgabe</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>lily_plympton</t>
+          <t>victoriaa_amaraa</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>bianca.x2x</t>
+          <t>aa.arianaa._</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>charlie.watkins22</t>
+          <t>ubvintage212</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,2207 +1648,2207 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ray_z.z</t>
+          <t>jackgallagher5</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>avaa_301</t>
+          <t>grace.laliberte</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>gabriellabosco_</t>
+          <t>stilltxnshi</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>_banutbr3ad</t>
+          <t>danny.colon2</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ub_veggievan</t>
+          <t>jayvgal23</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ananyaa_1108</t>
+          <t>et_lacey</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>emilioquijano_</t>
+          <t>axxyush</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>aminahhr.__</t>
+          <t>matthewfronczak23</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>tanya.o.0</t>
+          <t>mar.tingss</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>austinkell32</t>
+          <t>d3vin_u</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>grace.laliberte</t>
+          <t>danaxjarvis</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>angelinamiklos</t>
+          <t>willllliam010</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>itsf_emi</t>
+          <t>robby.bauman</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>abedemarco</t>
+          <t>j.caceres05</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>samantharwagner</t>
+          <t>iamtukugaye</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>anhelinakavalchuk</t>
+          <t>natescr</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>natwright05</t>
+          <t>anabel.donovan</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>nafi._.zvr</t>
+          <t>kat.dm.bee</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>sam_mejorado</t>
+          <t>sophiafabozzi</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>elizabethcarlos12354</t>
+          <t>davidfrescoyrico</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>kyrah.png</t>
+          <t>spamzwithroliii</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>trex_explorer</t>
+          <t>mikayla_sabel</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>quynh._.n</t>
+          <t>ale_jandrodriguez</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ellakulys</t>
+          <t>saeeda.eda</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>annarebic</t>
+          <t>warren_fuhry</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>haley.bosak</t>
+          <t>mxry.ry</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>frankiehuston_</t>
+          <t>kamil.woskowiak</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>aribandss_</t>
+          <t>kenziehenny</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>dxvynnn._</t>
+          <t>u.chikaa_</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>taylormacko6</t>
+          <t>jordanferby_jf</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ryseager5</t>
+          <t>k.yada_</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>sammycorti</t>
+          <t>arely.c2</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>liam_tucker23</t>
+          <t>lamarbrown._</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>_trvpsoulkay</t>
+          <t>smxooch</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>bryannarfrancis</t>
+          <t>thejesusussychrist</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>quinn.reagan</t>
+          <t>bintys_pastryart</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>kayleemalczewskiii</t>
+          <t>dupre_99</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>neamiii_</t>
+          <t>dom_piazza</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>pria.mayall</t>
+          <t>noddy_rot</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>erinmarquardtt</t>
+          <t>itsmishi1412</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>philip_ouma962</t>
+          <t>julianamoussa9</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>rmkorsh</t>
+          <t>katiedwhite</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>djathreya</t>
+          <t>selenereneo</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>_alexaneira</t>
+          <t>kb2certified</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>dom_.holmes</t>
+          <t>_.riya._xo</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>audrey.a__</t>
+          <t>tylersaccacio</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>meg_marcotte</t>
+          <t>mason_bayer</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>favv_.izzy</t>
+          <t>b.reilly05</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>wyatt_held</t>
+          <t>olgamitchell85</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>braydenwys</t>
+          <t>masani._brace</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>clouboutinn</t>
+          <t>hinahogan</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ethanjfarrell</t>
+          <t>retro.pw</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>bonilla.808</t>
+          <t>_nickandersen</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>dawsonssss</t>
+          <t>kayleemalczewskiii</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>harshshinde0</t>
+          <t>c.giallella14</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>fpalumbo_30</t>
+          <t>elliepleva_</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>emily__scherer</t>
+          <t>samantharwagner</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>robby.bauman</t>
+          <t>mikey.pirraglia</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>adrianna.stabile</t>
+          <t>isthatsamer</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>1738ali_</t>
+          <t>j.pf.10</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>francescabianchl</t>
+          <t>osvaldo_8211</t>
         </is>
       </c>
       <c r="B182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>lauraa.lon</t>
+          <t>thegirlwiththepoeticsoul</t>
         </is>
       </c>
       <c r="B183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>con.jiggy</t>
+          <t>1738ali_</t>
         </is>
       </c>
       <c r="B184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>n4k1a</t>
+          <t>kschoe.13</t>
         </is>
       </c>
       <c r="B185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>emiliedubay5</t>
+          <t>reagannshortt</t>
         </is>
       </c>
       <c r="B186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>jamyaahh</t>
+          <t>zuzkaboczar</t>
         </is>
       </c>
       <c r="B187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>willllliam010</t>
+          <t>_banutbr3ad</t>
         </is>
       </c>
       <c r="B188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>emj2708</t>
+          <t>nickkjohnsonnn</t>
         </is>
       </c>
       <c r="B189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>kxitlynnl</t>
+          <t>its.jmoney_14</t>
         </is>
       </c>
       <c r="B190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>itsmishi1412</t>
+          <t>melanatedcollegiansofnyc</t>
         </is>
       </c>
       <c r="B191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>haleylentliee</t>
+          <t>_simondonaldson</t>
         </is>
       </c>
       <c r="B192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ediekreifels</t>
+          <t>ibrahim_rehan.1</t>
         </is>
       </c>
       <c r="B193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>the_nezirler</t>
+          <t>carlin_kennedy04</t>
         </is>
       </c>
       <c r="B194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>olivialeelearch</t>
+          <t>ray_z.z</t>
         </is>
       </c>
       <c r="B195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>et_lacey</t>
+          <t>junoistryingtosurvive27</t>
         </is>
       </c>
       <c r="B196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>dylan_froelich_</t>
+          <t>povvsydneyy</t>
         </is>
       </c>
       <c r="B197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>zjn.aa</t>
+          <t>nikita_korolkov_</t>
         </is>
       </c>
       <c r="B198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>jeremy.c.ohen</t>
+          <t>_leilaaa.londonn</t>
         </is>
       </c>
       <c r="B199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ub_psyop</t>
+          <t>pedro_alban_is_a_loser</t>
         </is>
       </c>
       <c r="B200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>holly_fici</t>
+          <t>allison_g17</t>
         </is>
       </c>
       <c r="B201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>lamarbrown._</t>
+          <t>streetcatsmilk</t>
         </is>
       </c>
       <c r="B202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>maca.riaa</t>
+          <t>malachi_tomaszewski</t>
         </is>
       </c>
       <c r="B203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>mya.delpercio</t>
+          <t>chance.etc</t>
         </is>
       </c>
       <c r="B204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>iamtukugaye</t>
+          <t>cj_firlt</t>
         </is>
       </c>
       <c r="B205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>cj_firlt</t>
+          <t>maggiekleiberr</t>
         </is>
       </c>
       <c r="B206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>jlammers05</t>
+          <t>ashley.alexiaa</t>
         </is>
       </c>
       <c r="B207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>tae_iiii</t>
+          <t>ubwhwa</t>
         </is>
       </c>
       <c r="B208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>emilyybamberger</t>
+          <t>lukec.43</t>
         </is>
       </c>
       <c r="B209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>soapy.spin.cycle</t>
+          <t>juliette_salazar23</t>
         </is>
       </c>
       <c r="B210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>bradyunger08</t>
+          <t>lily_plympton</t>
         </is>
       </c>
       <c r="B211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>mcohen.06</t>
+          <t>julia_ramey_</t>
         </is>
       </c>
       <c r="B212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>_kendra.richardson</t>
+          <t>akamebnr</t>
         </is>
       </c>
       <c r="B213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ncr.riazz01</t>
+          <t>pria.mayall</t>
         </is>
       </c>
       <c r="B214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>maee.frame</t>
+          <t>prerana_sangam14</t>
         </is>
       </c>
       <c r="B215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>erikagabriellewilson</t>
+          <t>ciarrafox</t>
         </is>
       </c>
       <c r="B216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>just.add.code</t>
+          <t>brnd8n</t>
         </is>
       </c>
       <c r="B217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>christian_neos_dupree</t>
+          <t>sachiramaswamy</t>
         </is>
       </c>
       <c r="B218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>johnghao</t>
+          <t>sickoflame</t>
         </is>
       </c>
       <c r="B219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>lukee203</t>
+          <t>anthnyyv</t>
         </is>
       </c>
       <c r="B220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>briannakenneyy</t>
+          <t>emilyybamberger</t>
         </is>
       </c>
       <c r="B221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>manojhettiarachchi123</t>
+          <t>ben_thomas692</t>
         </is>
       </c>
       <c r="B222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>danny.colon2</t>
+          <t>justbe021</t>
         </is>
       </c>
       <c r="B223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>mikey.pirraglia</t>
+          <t>jasoncoli411</t>
         </is>
       </c>
       <c r="B224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>alinaebrown</t>
+          <t>ayana.hy</t>
         </is>
       </c>
       <c r="B225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>uma._bhattacharjee</t>
+          <t>joellahere</t>
         </is>
       </c>
       <c r="B226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>hripsim3_</t>
+          <t>bran_antonio</t>
         </is>
       </c>
       <c r="B227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>junoistryingtosurvive27</t>
+          <t>gabrielalisbeth05</t>
         </is>
       </c>
       <c r="B228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ethanscaria</t>
+          <t>savannah.kubiak</t>
         </is>
       </c>
       <c r="B229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>_devinhanna</t>
+          <t>erinmarquardtt</t>
         </is>
       </c>
       <c r="B230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>zuzkaboczar</t>
+          <t>kanata.minamitani</t>
         </is>
       </c>
       <c r="B231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>sehejchhabra</t>
+          <t>antosepaz</t>
         </is>
       </c>
       <c r="B232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>izzy.abramson</t>
+          <t>nathalieclough_</t>
         </is>
       </c>
       <c r="B233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>zoe_mataraso</t>
+          <t>hripsim3_</t>
         </is>
       </c>
       <c r="B234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>23_kartik_v</t>
+          <t>wyatt_held</t>
         </is>
       </c>
       <c r="B235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>dev.snoop</t>
+          <t>23_kartik_v</t>
         </is>
       </c>
       <c r="B236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ben.thieben7</t>
+          <t>abbie__payne</t>
         </is>
       </c>
       <c r="B237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>nanaangelo00</t>
+          <t>billynohack</t>
         </is>
       </c>
       <c r="B238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>__bradley_bowman</t>
+          <t>wosel.zin</t>
         </is>
       </c>
       <c r="B239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>gabby.plaskie</t>
+          <t>biadb_</t>
         </is>
       </c>
       <c r="B240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>sadik.aha</t>
+          <t>brynne.madison</t>
         </is>
       </c>
       <c r="B241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>samkreshover</t>
+          <t>a1iyaaaa</t>
         </is>
       </c>
       <c r="B242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>jingranmei</t>
+          <t>jlammers05</t>
         </is>
       </c>
       <c r="B243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>jt_kag</t>
+          <t>jennaamarinoo</t>
         </is>
       </c>
       <c r="B244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>gio_lowkey_lame</t>
+          <t>ashley_melnyk</t>
         </is>
       </c>
       <c r="B245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>michaelmccabe55</t>
+          <t>priscosilver</t>
         </is>
       </c>
       <c r="B246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>boredperson05</t>
+          <t>ben.thieben7</t>
         </is>
       </c>
       <c r="B247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>sadieigoe</t>
+          <t>beckey_forever_</t>
         </is>
       </c>
       <c r="B248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>danielmatass</t>
+          <t>mercedesbenz_lo.ol</t>
         </is>
       </c>
       <c r="B249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>__sgbb__</t>
+          <t>abna_tuffour</t>
         </is>
       </c>
       <c r="B250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>wosel.zin</t>
+          <t>r.afifaa</t>
         </is>
       </c>
       <c r="B251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>its_nishi_</t>
+          <t>nishat6862</t>
         </is>
       </c>
       <c r="B252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>noah_collons</t>
+          <t>pawloski_98</t>
         </is>
       </c>
       <c r="B253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>eyalnoy22</t>
+          <t>nicole_krasnov1</t>
         </is>
       </c>
       <c r="B254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>maeryn.k.b</t>
+          <t>daph_jp</t>
         </is>
       </c>
       <c r="B255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>sujaysundar108</t>
+          <t>mia.dla</t>
         </is>
       </c>
       <c r="B256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>rapsocial716</t>
+          <t>wefuckswith_it</t>
         </is>
       </c>
       <c r="B257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>_jschneck</t>
+          <t>sofia.fox.goulah</t>
         </is>
       </c>
       <c r="B258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>sheryllsmithh</t>
+          <t>madridistas_502</t>
         </is>
       </c>
       <c r="B259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>j3ssica_navarr0</t>
+          <t>wood.elizabeth657</t>
         </is>
       </c>
       <c r="B260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>michelle.sapozhnikov</t>
+          <t>courtneybonner91</t>
         </is>
       </c>
       <c r="B261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>buffalofasa</t>
+          <t>seb_.torres</t>
         </is>
       </c>
       <c r="B262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>its_char_liee</t>
+          <t>lindsey.goudy</t>
         </is>
       </c>
       <c r="B263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>sophiavac</t>
+          <t>justtin.jackson</t>
         </is>
       </c>
       <c r="B264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>sarah.chowaniec</t>
+          <t>minty.margo</t>
         </is>
       </c>
       <c r="B265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>desiremaxxing_</t>
+          <t>karmaapalmo</t>
         </is>
       </c>
       <c r="B266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>olivia.detto</t>
+          <t>gabby.plaskie</t>
         </is>
       </c>
       <c r="B267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>olgamitchell85</t>
+          <t>pari.kcorp</t>
         </is>
       </c>
       <c r="B268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>lindsey.goudy</t>
+          <t>m.l._.bhargav</t>
         </is>
       </c>
       <c r="B269" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>melanatedcollegiansofnyc</t>
+          <t>sarahh8711</t>
         </is>
       </c>
       <c r="B270" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>eflrieaenmaan</t>
+          <t>gabriel.pjesus</t>
         </is>
       </c>
       <c r="B271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>sierrahxward</t>
+          <t>groovyemery</t>
         </is>
       </c>
       <c r="B272" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>_leilaaa.londonn</t>
+          <t>harshshinde0</t>
         </is>
       </c>
       <c r="B273" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>noahschneiderman_</t>
+          <t>marissa.529</t>
         </is>
       </c>
       <c r="B274" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>oscar.uiz</t>
+          <t>briflyy</t>
         </is>
       </c>
       <c r="B275" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>samarakohn</t>
+          <t>cberardi215</t>
         </is>
       </c>
       <c r="B276" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>nancymoustafa_</t>
+          <t>_melbass</t>
         </is>
       </c>
       <c r="B277" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>d3vin_u</t>
+          <t>nylaneylene</t>
         </is>
       </c>
       <c r="B278" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>ruchika.v7</t>
+          <t>emilee.riveraa</t>
         </is>
       </c>
       <c r="B279" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>crtsachaa</t>
+          <t>connor_valenti35</t>
         </is>
       </c>
       <c r="B280" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>cosmiic_maddie</t>
+          <t>azhishiggg</t>
         </is>
       </c>
       <c r="B281" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>shambhavigoyal</t>
+          <t>lugsports.buffalo</t>
         </is>
       </c>
       <c r="B282" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>graves.29</t>
+          <t>briannakenneyy</t>
         </is>
       </c>
       <c r="B283" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>_simondonaldson</t>
+          <t>sara_dibble</t>
         </is>
       </c>
       <c r="B284" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>leecee812</t>
+          <t>amia_6</t>
         </is>
       </c>
       <c r="B285" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>sarahlederr</t>
+          <t>asafukuda_</t>
         </is>
       </c>
       <c r="B286" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>emmakessler_</t>
+          <t>mynamesmiah</t>
         </is>
       </c>
       <c r="B287" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>malachi_tomaszewski</t>
+          <t>monicalubsyou</t>
         </is>
       </c>
       <c r="B288" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>allan29_21</t>
+          <t>ting._.ting._.123</t>
         </is>
       </c>
       <c r="B289" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>michael_kreuder</t>
+          <t>sophiavac</t>
         </is>
       </c>
       <c r="B290" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>lukec.43</t>
+          <t>summerr.perry</t>
         </is>
       </c>
       <c r="B291" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>this_iskaylaa</t>
+          <t>braydenwys</t>
         </is>
       </c>
       <c r="B292" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>patmurray32</t>
+          <t>d_234423</t>
         </is>
       </c>
       <c r="B293" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ammyceballoss</t>
+          <t>__sgbb__</t>
         </is>
       </c>
       <c r="B294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>emily.fidalgo</t>
+          <t>mya.delpercio</t>
         </is>
       </c>
       <c r="B295" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>lukegentry881</t>
+          <t>alena.panepinto</t>
         </is>
       </c>
       <c r="B296" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>marissah343</t>
+          <t>different.joshhh</t>
         </is>
       </c>
       <c r="B297" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>sofiajyf</t>
+          <t>davidamchir</t>
         </is>
       </c>
       <c r="B298" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>melody.maeee</t>
+          <t>john_10cruz</t>
         </is>
       </c>
       <c r="B299" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>lexi.nolette</t>
+          <t>cjyuhhh_2023</t>
         </is>
       </c>
       <c r="B300" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>savannah.kubiak</t>
+          <t>johnghao</t>
         </is>
       </c>
       <c r="B301" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>therealsarafletcher</t>
+          <t>abbie.liszewski</t>
         </is>
       </c>
       <c r="B302" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>zachchan__</t>
+          <t>jonaherstein</t>
         </is>
       </c>
       <c r="B303" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>_gomezjazmin_</t>
+          <t>odviimm</t>
         </is>
       </c>
       <c r="B304" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>gabby.acevedo_</t>
+          <t>c_ind_y_cc</t>
         </is>
       </c>
       <c r="B305" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>constantinesouzas</t>
+          <t>maeryn.k.b</t>
         </is>
       </c>
       <c r="B306" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>mealyj2005</t>
+          <t>taylormacko6</t>
         </is>
       </c>
       <c r="B307" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>limited_grl.emma</t>
+          <t>crtsachaa</t>
         </is>
       </c>
       <c r="B308" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>gwen_park04</t>
+          <t>soapy.spin.cycle</t>
         </is>
       </c>
       <c r="B309" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>mariaa.ss_1</t>
+          <t>gabriellabosco_</t>
         </is>
       </c>
       <c r="B310" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>aawesomeshoes</t>
+          <t>vitamin_k___</t>
         </is>
       </c>
       <c r="B311" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>cjyuhhh_2023</t>
+          <t>evanpareskane</t>
         </is>
       </c>
       <c r="B312" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>chance.etc</t>
+          <t>meghan.kolb</t>
         </is>
       </c>
       <c r="B313" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>__kristinm</t>
+          <t>klord1230</t>
         </is>
       </c>
       <c r="B314" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>john_10cruz</t>
+          <t>74apark</t>
         </is>
       </c>
       <c r="B315" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>natediehl_</t>
+          <t>henrytran2561</t>
         </is>
       </c>
       <c r="B316" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>eric.in.nyc</t>
+          <t>donnamason3646</t>
         </is>
       </c>
       <c r="B317" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>ashleybbrowne</t>
+          <t>aribandss_</t>
         </is>
       </c>
       <c r="B318" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>ebonyrenae___</t>
+          <t>clara_hollands</t>
         </is>
       </c>
       <c r="B319" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>alex_nishiyama6</t>
+          <t>fatima.mx23</t>
         </is>
       </c>
       <c r="B320" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>jjenna.409</t>
+          <t>favv_.izzy</t>
         </is>
       </c>
       <c r="B321" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>j.pf.10</t>
+          <t>jaydecoynee</t>
         </is>
       </c>
       <c r="B322" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>nikita_korolkov_</t>
+          <t>maca.riaa</t>
         </is>
       </c>
       <c r="B323" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>colo_mufa_</t>
+          <t>delaneyhoran_</t>
         </is>
       </c>
       <c r="B324" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>gabriel.pjesus</t>
+          <t>limited_grl.emma</t>
         </is>
       </c>
       <c r="B325" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>nabeelpattan</t>
+          <t>evan1320013</t>
         </is>
       </c>
       <c r="B326" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>jennaamarinoo</t>
+          <t>sujaysundar108</t>
         </is>
       </c>
       <c r="B327" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>gabrielalisbeth05</t>
+          <t>stanleydansicker24</t>
         </is>
       </c>
       <c r="B328" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>_carly.moore</t>
+          <t>cam_demay4</t>
         </is>
       </c>
       <c r="B329" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>nyc_sumeyah</t>
+          <t>zachchan__</t>
         </is>
       </c>
       <c r="B330" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>tanaythedestroyer</t>
+          <t>makotonjxz</t>
         </is>
       </c>
       <c r="B331" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>lp2406_</t>
+          <t>karolina.molter</t>
         </is>
       </c>
       <c r="B332" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>rocjo15</t>
+          <t>kelseybauer.f</t>
         </is>
       </c>
       <c r="B333" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>avafrosini</t>
+          <t>mirzaxmadov____o</t>
         </is>
       </c>
       <c r="B334" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>jayvgal23</t>
+          <t>da_wongho</t>
         </is>
       </c>
       <c r="B335" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ryann.palumbo</t>
+          <t>d_gagge</t>
         </is>
       </c>
       <c r="B336" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>mr.fragglee</t>
+          <t>itseli.___</t>
         </is>
       </c>
       <c r="B337" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>emilypeace17</t>
+          <t>tanaythedestroyer</t>
         </is>
       </c>
       <c r="B338" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>angelinafonsecaa</t>
+          <t>k.la_beach_</t>
         </is>
       </c>
       <c r="B339" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>lexiitomielloo</t>
+          <t>dmion_</t>
         </is>
       </c>
       <c r="B340" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>elliepleva_</t>
+          <t>toricrossmann</t>
         </is>
       </c>
       <c r="B341" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>chloemyersss</t>
+          <t>dalekim__</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>matthew.sarro</t>
+          <t>ub_iusa</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>mattkruse372</t>
+          <t>johnyboyyo</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>noamspevack</t>
+          <t>j3ssica_navarr0</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>gxselle.__</t>
+          <t>sarahbenstock</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>abbie__payne</t>
+          <t>olivialeelearch</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>_maxxls62</t>
+          <t>casasmodernasdotcom</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>da_wongho</t>
+          <t>emily_wachtin</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>evanpareskane</t>
+          <t>itz.gucchi</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>avery.rawlins</t>
+          <t>jessica_.ire</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ryan_donnellan21</t>
+          <t>carlamargossian</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>joellahere</t>
+          <t>ryseager5</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>klysee</t>
+          <t>avafrosini</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>sarahbenstock</t>
+          <t>andrewzinzi_</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>jdisy20</t>
+          <t>natediehl_</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>kianaaa_.x</t>
+          <t>djathreya</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>jjuliakowalski</t>
+          <t>domchurakos</t>
         </is>
       </c>
       <c r="B358" t="b">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>elsahawkinson</t>
+          <t>anayah.jayden_</t>
         </is>
       </c>
       <c r="B359" t="b">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>marissa.529</t>
+          <t>ley.amoree</t>
         </is>
       </c>
       <c r="B360" t="b">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>jessica_.ire</t>
+          <t>kamryn.r.iley</t>
         </is>
       </c>
       <c r="B361" t="b">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>kaylamoorehead18</t>
+          <t>emilioquijano_</t>
         </is>
       </c>
       <c r="B362" t="b">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>thejesusussychrist</t>
+          <t>kira.forkey</t>
         </is>
       </c>
       <c r="B363" t="b">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>emilee.riveraa</t>
+          <t>sawyer_mac17</t>
         </is>
       </c>
       <c r="B364" t="b">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>lissa.bangaa</t>
+          <t>alex_demagistris</t>
         </is>
       </c>
       <c r="B365" t="b">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>cameron.iannuzzi</t>
+          <t>ali_h306</t>
         </is>
       </c>
       <c r="B366" t="b">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>mspoeticsoul_</t>
+          <t>uma._bhattacharjee</t>
         </is>
       </c>
       <c r="B367" t="b">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>anthonyrvacca</t>
+          <t>kukpabi1027</t>
         </is>
       </c>
       <c r="B368" t="b">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>klord1230</t>
+          <t>bryanl_24</t>
         </is>
       </c>
       <c r="B369" t="b">
@@ -4128,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>zuleykaavargas</t>
+          <t>regiiiiina101</t>
         </is>
       </c>
       <c r="B370" t="b">
@@ -4138,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>j.caceres05</t>
+          <t>gxselle.__</t>
         </is>
       </c>
       <c r="B371" t="b">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>itz.gucchi</t>
+          <t>hamzah_716</t>
         </is>
       </c>
       <c r="B372" t="b">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ronim_ad</t>
+          <t>ncr.riazz01</t>
         </is>
       </c>
       <c r="B373" t="b">
@@ -4168,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>la.jenelle</t>
+          <t>mvchelle.huang</t>
         </is>
       </c>
       <c r="B374" t="b">
@@ -4178,7 +4178,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>mykey_94</t>
+          <t>_gomezjazmin_</t>
         </is>
       </c>
       <c r="B375" t="b">
@@ -4188,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>samb0905</t>
+          <t>rmkorsh</t>
         </is>
       </c>
       <c r="B376" t="b">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>jsonedilo</t>
+          <t>sofiajyf</t>
         </is>
       </c>
       <c r="B377" t="b">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>its__kayla5</t>
+          <t>samarakohn</t>
         </is>
       </c>
       <c r="B378" t="b">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>ange1abe</t>
+          <t>melanie.blum90</t>
         </is>
       </c>
       <c r="B379" t="b">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>d_234423</t>
+          <t>mc.digem</t>
         </is>
       </c>
       <c r="B380" t="b">
@@ -4238,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>dom_piazza</t>
+          <t>trevorauerbach3</t>
         </is>
       </c>
       <c r="B381" t="b">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>sachiramaswamy</t>
+          <t>abby_catlin</t>
         </is>
       </c>
       <c r="B382" t="b">
@@ -4258,7 +4258,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>chen.ciliang</t>
+          <t>briannasilverstone</t>
         </is>
       </c>
       <c r="B383" t="b">
@@ -4268,7 +4268,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>origami.yoda</t>
+          <t>heatherd3287</t>
         </is>
       </c>
       <c r="B384" t="b">
@@ -4278,7 +4278,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>r.afifaa</t>
+          <t>almighty.von</t>
         </is>
       </c>
       <c r="B385" t="b">
@@ -4288,7 +4288,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>kakey_16</t>
+          <t>143.lexi</t>
         </is>
       </c>
       <c r="B386" t="b">
@@ -4298,7 +4298,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>nycasianjames</t>
+          <t>_itsoluwa</t>
         </is>
       </c>
       <c r="B387" t="b">
@@ -4308,7 +4308,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>dalavan.psp</t>
+          <t>chiragohri_07</t>
         </is>
       </c>
       <c r="B388" t="b">
@@ -4318,7 +4318,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>j.chav1025</t>
+          <t>allisonwynne_</t>
         </is>
       </c>
       <c r="B389" t="b">
@@ -4328,7 +4328,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>fshaff26</t>
+          <t>its_nishi_</t>
         </is>
       </c>
       <c r="B390" t="b">
@@ -4338,7 +4338,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>celebrationstati0n</t>
+          <t>emily__scherer</t>
         </is>
       </c>
       <c r="B391" t="b">
@@ -4348,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>leilaniportilla</t>
+          <t>noahschneiderman_</t>
         </is>
       </c>
       <c r="B392" t="b">
@@ -4358,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>gungeezy</t>
+          <t>_sam.w.the.hmstr_</t>
         </is>
       </c>
       <c r="B393" t="b">
@@ -4368,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>lanaa.maher</t>
+          <t>ub_veggievan</t>
         </is>
       </c>
       <c r="B394" t="b">
@@ -4378,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>daph_jp</t>
+          <t>joeetere</t>
         </is>
       </c>
       <c r="B395" t="b">
@@ -4388,7 +4388,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>lifeisamisgroove</t>
+          <t>shambhavigoyal</t>
         </is>
       </c>
       <c r="B396" t="b">
@@ -4398,7 +4398,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>mish.bel</t>
+          <t>nazstaylowkey</t>
         </is>
       </c>
       <c r="B397" t="b">
@@ -4408,7 +4408,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>kat.dm.bee</t>
+          <t>itsmeee.elissa</t>
         </is>
       </c>
       <c r="B398" t="b">
@@ -4418,7 +4418,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>_emilybroderick_</t>
+          <t>christopher__a__</t>
         </is>
       </c>
       <c r="B399" t="b">
@@ -4428,7 +4428,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>suresh_jatoth_1998</t>
+          <t>patmurray32</t>
         </is>
       </c>
       <c r="B400" t="b">
@@ -4438,7 +4438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>ali_h306</t>
+          <t>jsonedilo</t>
         </is>
       </c>
       <c r="B401" t="b">
@@ -4448,7 +4448,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>kelvinnick_</t>
+          <t>n4k1a</t>
         </is>
       </c>
       <c r="B402" t="b">
@@ -4458,7 +4458,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>m1l0.l4ur14</t>
+          <t>trex_explorer</t>
         </is>
       </c>
       <c r="B403" t="b">
@@ -4468,7 +4468,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>ashley_melnyk</t>
+          <t>_kendra.richardson</t>
         </is>
       </c>
       <c r="B404" t="b">
@@ -4478,7 +4478,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>bibi_lee5</t>
+          <t>runsted.trxnco</t>
         </is>
       </c>
       <c r="B405" t="b">
@@ -4488,7 +4488,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>victoriaf544</t>
+          <t>meghanmarv</t>
         </is>
       </c>
       <c r="B406" t="b">
@@ -4498,7 +4498,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>k.la_beach_</t>
+          <t>sammyyhmelovsky</t>
         </is>
       </c>
       <c r="B407" t="b">
@@ -4508,7 +4508,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>sammyyhmelovsky</t>
+          <t>anni_prasad07</t>
         </is>
       </c>
       <c r="B408" t="b">
@@ -4518,410 +4518,10 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>0_just_ethan_0</t>
+          <t>anelle_23</t>
         </is>
       </c>
       <c r="B409" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>_emilymotaa</t>
-        </is>
-      </c>
-      <c r="B410" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>josh_haynes12</t>
-        </is>
-      </c>
-      <c r="B411" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>duke.marcell2</t>
-        </is>
-      </c>
-      <c r="B412" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>justtin.jackson</t>
-        </is>
-      </c>
-      <c r="B413" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>anelle_23</t>
-        </is>
-      </c>
-      <c r="B414" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>marissa.anjoile</t>
-        </is>
-      </c>
-      <c r="B415" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>ynw.gavin</t>
-        </is>
-      </c>
-      <c r="B416" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>yemi_goddess</t>
-        </is>
-      </c>
-      <c r="B417" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>kukpabi1027</t>
-        </is>
-      </c>
-      <c r="B418" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>yahgurl.alexia</t>
-        </is>
-      </c>
-      <c r="B419" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>henrytran2561</t>
-        </is>
-      </c>
-      <c r="B420" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>iamtaquarii</t>
-        </is>
-      </c>
-      <c r="B421" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>jyd3nm</t>
-        </is>
-      </c>
-      <c r="B422" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>isaac_x6x</t>
-        </is>
-      </c>
-      <c r="B423" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>runsted.trxnco</t>
-        </is>
-      </c>
-      <c r="B424" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>alina.trzyy</t>
-        </is>
-      </c>
-      <c r="B425" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>sophiagetzoni</t>
-        </is>
-      </c>
-      <c r="B426" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>jordanferby_jf</t>
-        </is>
-      </c>
-      <c r="B427" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>sophiafabozzi</t>
-        </is>
-      </c>
-      <c r="B428" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>xoxoxo.kianna</t>
-        </is>
-      </c>
-      <c r="B429" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>qestherr</t>
-        </is>
-      </c>
-      <c r="B430" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>zack.wentz.9</t>
-        </is>
-      </c>
-      <c r="B431" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>alex.adames05</t>
-        </is>
-      </c>
-      <c r="B432" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>_joebraun</t>
-        </is>
-      </c>
-      <c r="B433" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>nicholas_mcloughlin</t>
-        </is>
-      </c>
-      <c r="B434" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>dmion_</t>
-        </is>
-      </c>
-      <c r="B435" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>kelseybauer.f</t>
-        </is>
-      </c>
-      <c r="B436" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>k.yada_</t>
-        </is>
-      </c>
-      <c r="B437" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>jayven1005</t>
-        </is>
-      </c>
-      <c r="B438" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>aaron_wang5</t>
-        </is>
-      </c>
-      <c r="B439" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>jamesmcneil26</t>
-        </is>
-      </c>
-      <c r="B440" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>sammyodehh</t>
-        </is>
-      </c>
-      <c r="B441" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>erinkorts</t>
-        </is>
-      </c>
-      <c r="B442" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>jonmercedes_</t>
-        </is>
-      </c>
-      <c r="B443" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>maxxdamico_</t>
-        </is>
-      </c>
-      <c r="B444" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>cberardi215</t>
-        </is>
-      </c>
-      <c r="B445" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>natalie.vandevoorde</t>
-        </is>
-      </c>
-      <c r="B446" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>mmayorr_0705</t>
-        </is>
-      </c>
-      <c r="B447" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>itseli.___</t>
-        </is>
-      </c>
-      <c r="B448" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>aaronmcinnes_</t>
-        </is>
-      </c>
-      <c r="B449" t="b">
         <v>0</v>
       </c>
     </row>
